--- a/cypress/downloads/proses material.xlsx
+++ b/cypress/downloads/proses material.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>Factory</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Cavity</t>
-  </si>
-  <si>
-    <t>Part Number</t>
-  </si>
-  <si>
-    <t>Part Name</t>
+    <t>Hole</t>
+  </si>
+  <si>
+    <t>Component Number</t>
+  </si>
+  <si>
+    <t>Component Name</t>
   </si>
   <si>
     <t>Qty Total</t>
@@ -53,13 +53,13 @@
     <t>Cek</t>
   </si>
   <si>
-    <t>Harga</t>
+    <t>Price</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>PT XXX</t>
+    <t>XYZ</t>
   </si>
   <si>
     <t>AREA 07</t>
@@ -68,43 +68,43 @@
     <t>SH22L-10</t>
   </si>
   <si>
+    <t>SULVUS 0.5 La Br</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La G</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La L</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La Lg</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La P</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La R</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La Sb</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La V</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La W</t>
+  </si>
+  <si>
+    <t>SULVUS 0.75 La B</t>
+  </si>
+  <si>
+    <t>SULVUS 0.5 La Y</t>
+  </si>
+  <si>
     <t>SULVUS 0.5 La</t>
   </si>
   <si>
-    <t>SULVUS 0.5 La-B</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Br</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-G</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-L</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Lg</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-P</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-R</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Sb</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-V</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-W</t>
-  </si>
-  <si>
-    <t>SULVUS 0.75 La-B</t>
-  </si>
-  <si>
-    <t>SULVUS 0.5 La-Y</t>
+    <t>SULVUS 0.5 La B</t>
   </si>
   <si>
     <t>PA 2241B</t>
@@ -116,253 +116,220 @@
     <t>ASRCF AR D01</t>
   </si>
   <si>
-    <t>OURRX-C 1.25 R</t>
-  </si>
-  <si>
-    <t>OURRX-C 1.25 L</t>
-  </si>
-  <si>
-    <t>PATC-GY 12X50</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 G</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 L</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 P</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 R</t>
-  </si>
-  <si>
-    <t>PATC-LG 12X50</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 W-B</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 Y</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 B</t>
+    <t>OURRX C 1.25 R</t>
+  </si>
+  <si>
+    <t>OURRX C 1.25 L</t>
+  </si>
+  <si>
+    <t>PATC GY 12X50</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 G</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 L</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 P</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 R</t>
+  </si>
+  <si>
+    <t>PATC LG 12X50</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 W B</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 Y</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 B</t>
   </si>
   <si>
     <t>1140-7095-KE</t>
   </si>
   <si>
-    <t>OPRR-C 2.0 Gy</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 W</t>
+    <t>OPRR C 2.0 Gy</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 W</t>
   </si>
   <si>
     <t>SH33Z-01</t>
   </si>
   <si>
-    <t>OURRX-C 1.25 B</t>
-  </si>
-  <si>
-    <t>OURRX-C 1.25 G</t>
-  </si>
-  <si>
-    <t>OURRX-C 1.25 P</t>
-  </si>
-  <si>
-    <t>ND2001-TR 09</t>
-  </si>
-  <si>
-    <t>OPRR-C 2.0 Br</t>
-  </si>
-  <si>
-    <t>VACS 0.85 B</t>
-  </si>
-  <si>
-    <t>VACS 0.85 G</t>
-  </si>
-  <si>
-    <t>VACS 0.85 P</t>
-  </si>
-  <si>
-    <t>VACS 0.85 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 P</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 G</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 L</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 R</t>
-  </si>
-  <si>
-    <t>CB-B D2x2 L=40</t>
-  </si>
-  <si>
-    <t>OPRRH-C 0.75 W-B</t>
-  </si>
-  <si>
-    <t>CB-B H5x3 L=500</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 W</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 B</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 G</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 L</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Gy</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Lg</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 P</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 R</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 W</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Br</t>
-  </si>
-  <si>
-    <t>CIVIC 1.25 Y</t>
-  </si>
-  <si>
-    <t>IVSSH-C 0.75 L</t>
-  </si>
-  <si>
-    <t>IVSSH-C 0.75 W</t>
-  </si>
-  <si>
-    <t>CIVIC 0.75 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 B</t>
+    <t>OURRX C 1.25 B</t>
+  </si>
+  <si>
+    <t>OURRX C 1.25 G</t>
+  </si>
+  <si>
+    <t>OURRX C 1.25 P</t>
+  </si>
+  <si>
+    <t>ND2001-TR-09</t>
+  </si>
+  <si>
+    <t>OPRR C 2.0 Br</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 P</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 G</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 L</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 R</t>
+  </si>
+  <si>
+    <t>CB B D2x2 L=40</t>
+  </si>
+  <si>
+    <t>OPRRH C 0.75 W B</t>
+  </si>
+  <si>
+    <t>CB B H5x3 L=500</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 W</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 B</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 G</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 L</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Gy</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Lg</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 P</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 R</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 W</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Br</t>
+  </si>
+  <si>
+    <t>BIVIC 1.25 Y</t>
+  </si>
+  <si>
+    <t>AISSH C 0.75 L</t>
+  </si>
+  <si>
+    <t>AISSH C 0.75 W</t>
+  </si>
+  <si>
+    <t>BIVIC 0.75 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 B</t>
   </si>
   <si>
     <t>SH33Z-02</t>
   </si>
   <si>
-    <t>CIVIC 0.35 Gy</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 P</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 Sb</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 W</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 Y</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 G</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 L</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 Lg</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 R</t>
-  </si>
-  <si>
-    <t>CIVIC 0.35 V</t>
-  </si>
-  <si>
-    <t>VACS 0.5 L</t>
-  </si>
-  <si>
-    <t>IVSSH-C 0.5 R</t>
-  </si>
-  <si>
-    <t>VACS 0.3 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 L</t>
-  </si>
-  <si>
-    <t>VACS 0.5 Br</t>
-  </si>
-  <si>
-    <t>VACS 0.5 R</t>
-  </si>
-  <si>
-    <t>VACS 0.5 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 G</t>
-  </si>
-  <si>
-    <t>VACS 0.5 B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Lg</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 P</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 R</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Br</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Sb</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 V</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 W</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Y</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 W-B</t>
-  </si>
-  <si>
-    <t>CIVIC 0.5 Gy</t>
+    <t>BIVIC 0.35 Gy</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 P</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 Sb</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 W</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 Y</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 G</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 L</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 Lg</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 R</t>
+  </si>
+  <si>
+    <t>BIVIC 0.35 V</t>
+  </si>
+  <si>
+    <t>AISSH C 0.5 R</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 L</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 G</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Lg</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 P</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 R</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Br</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Sb</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 V</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 W</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Y</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 W B</t>
+  </si>
+  <si>
+    <t>BIVIC 0.5 Gy</t>
   </si>
   <si>
     <t>SH22L-04</t>
   </si>
   <si>
-    <t>CIVIC 0.35 Be</t>
-  </si>
-  <si>
-    <t>VACS 0.5 W</t>
+    <t>BIVIC 0.35 Be</t>
   </si>
   <si>
     <t>Total Qty Total</t>
@@ -718,7 +685,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:M1"/>
@@ -731,7 +698,7 @@
     <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
@@ -799,16 +766,16 @@
         <v>16</v>
       </c>
       <c r="G2">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J2">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L2">
         <v>0.2255</v>
       </c>
       <c r="M2">
-        <v>338.25</v>
+        <v>676.5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -886,16 +853,16 @@
         <v>19</v>
       </c>
       <c r="G5">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="J5">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="L5">
         <v>0.2255</v>
       </c>
       <c r="M5">
-        <v>676.5</v>
+        <v>507.375</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -944,16 +911,16 @@
         <v>21</v>
       </c>
       <c r="G7">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="J7">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="L7">
         <v>0.2255</v>
       </c>
       <c r="M7">
-        <v>507.375</v>
+        <v>676.5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1060,16 +1027,16 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L11">
-        <v>0.2255</v>
+        <v>0.1459</v>
       </c>
       <c r="M11">
-        <v>676.5</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1089,16 +1056,16 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="J12">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="L12">
         <v>0.2255</v>
       </c>
       <c r="M12">
-        <v>676.5</v>
+        <v>507.375</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1118,16 +1085,16 @@
         <v>27</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J13">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L13">
-        <v>0.1459</v>
+        <v>0.2255</v>
       </c>
       <c r="M13">
-        <v>145.9</v>
+        <v>676.5</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1147,16 +1114,16 @@
         <v>28</v>
       </c>
       <c r="G14">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="J14">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="L14">
         <v>0.2255</v>
       </c>
       <c r="M14">
-        <v>507.375</v>
+        <v>676.5</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1231,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>3000</v>
@@ -1260,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>3000</v>
@@ -1347,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G21">
         <v>3000</v>
@@ -1376,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>3000</v>
@@ -1405,19 +1372,19 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J23">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L23">
-        <v>0.2255</v>
+        <v>0.1459</v>
       </c>
       <c r="M23">
-        <v>676.5</v>
+        <v>218.85</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1434,19 +1401,10 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <v>3000</v>
-      </c>
-      <c r="J24">
-        <v>3000</v>
+        <v>25</v>
       </c>
       <c r="L24">
-        <v>0.2255</v>
-      </c>
-      <c r="M24">
-        <v>676.5</v>
+        <v>0.1459</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1463,19 +1421,19 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G25">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J25">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L25">
-        <v>0.1459</v>
+        <v>0.2255</v>
       </c>
       <c r="M25">
-        <v>218.85</v>
+        <v>676.5</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1492,10 +1450,19 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>3000</v>
+      </c>
+      <c r="J26">
+        <v>3000</v>
       </c>
       <c r="L26">
-        <v>0.1459</v>
+        <v>0.2255</v>
+      </c>
+      <c r="M26">
+        <v>676.5</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1503,28 +1470,34 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G27">
-        <v>3000</v>
+        <v>800</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
       </c>
       <c r="J27">
-        <v>3000</v>
+        <v>20000</v>
+      </c>
+      <c r="K27">
+        <v>19200</v>
       </c>
       <c r="L27">
-        <v>0.2255</v>
+        <v>0.0034</v>
       </c>
       <c r="M27">
-        <v>676.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1532,28 +1505,28 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G28">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="J28">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L28">
-        <v>0.2255</v>
+        <v>0.9072</v>
       </c>
       <c r="M28">
-        <v>676.5</v>
+        <v>725.76</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1570,25 +1543,19 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>800</v>
       </c>
-      <c r="I29">
-        <v>25</v>
-      </c>
       <c r="J29">
-        <v>20000</v>
-      </c>
-      <c r="K29">
-        <v>19200</v>
+        <v>800</v>
       </c>
       <c r="L29">
-        <v>0.0034</v>
+        <v>0.9072</v>
       </c>
       <c r="M29">
-        <v>68</v>
+        <v>725.76</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1605,19 +1572,19 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J30">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L30">
-        <v>0.9072</v>
+        <v>0.7777</v>
       </c>
       <c r="M30">
-        <v>725.76</v>
+        <v>388.85</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1634,19 +1601,19 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31">
-        <v>800</v>
+        <v>125</v>
       </c>
       <c r="J31">
-        <v>800</v>
+        <v>125</v>
       </c>
       <c r="L31">
-        <v>0.9072</v>
+        <v>1.2274</v>
       </c>
       <c r="M31">
-        <v>725.76</v>
+        <v>153.425</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1663,25 +1630,19 @@
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>500</v>
-      </c>
-      <c r="I32">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="J32">
-        <v>38000</v>
-      </c>
-      <c r="K32">
-        <v>37500</v>
+        <v>375</v>
       </c>
       <c r="L32">
-        <v>0.7777</v>
+        <v>1.2274</v>
       </c>
       <c r="M32">
-        <v>29552.6</v>
+        <v>460.275</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1698,19 +1659,19 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="J33">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="L33">
         <v>1.2274</v>
       </c>
       <c r="M33">
-        <v>153.425</v>
+        <v>306.85</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1727,7 +1688,7 @@
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>375</v>
@@ -1756,19 +1717,19 @@
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J35">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L35">
-        <v>1.2274</v>
+        <v>0.7777</v>
       </c>
       <c r="M35">
-        <v>306.85</v>
+        <v>272.195</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1785,19 +1746,19 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="J36">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="L36">
         <v>1.2274</v>
       </c>
       <c r="M36">
-        <v>460.275</v>
+        <v>613.7</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1814,25 +1775,19 @@
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37">
-        <v>350</v>
-      </c>
-      <c r="I37">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="J37">
-        <v>7700</v>
-      </c>
-      <c r="K37">
-        <v>7350</v>
+        <v>500</v>
       </c>
       <c r="L37">
-        <v>0.7777</v>
+        <v>1.2274</v>
       </c>
       <c r="M37">
-        <v>5988.29</v>
+        <v>613.7</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -1849,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>500</v>
@@ -1878,19 +1833,25 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G39">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="I39">
+        <v>43</v>
       </c>
       <c r="J39">
-        <v>500</v>
+        <v>43000</v>
+      </c>
+      <c r="K39">
+        <v>42000</v>
       </c>
       <c r="L39">
-        <v>1.2274</v>
+        <v>0.1555</v>
       </c>
       <c r="M39">
-        <v>613.7</v>
+        <v>6686.5</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -1910,16 +1871,16 @@
         <v>42</v>
       </c>
       <c r="G40">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J40">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L40">
         <v>1.2274</v>
       </c>
       <c r="M40">
-        <v>613.7</v>
+        <v>1227.4</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1936,25 +1897,19 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="I41">
-        <v>43</v>
+        <v>500</v>
       </c>
       <c r="J41">
-        <v>43000</v>
-      </c>
-      <c r="K41">
-        <v>42000</v>
+        <v>500</v>
       </c>
       <c r="L41">
-        <v>0.1555</v>
+        <v>1.2274</v>
       </c>
       <c r="M41">
-        <v>6686.5</v>
+        <v>613.7</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1971,20 +1926,11 @@
         <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-      <c r="J42">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="L42">
         <v>1.2274</v>
       </c>
-      <c r="M42">
-        <v>1227.4</v>
-      </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
@@ -2000,7 +1946,7 @@
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>500</v>
@@ -2029,11 +1975,20 @@
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="J44">
+        <v>500</v>
       </c>
       <c r="L44">
         <v>1.2274</v>
       </c>
+      <c r="M44">
+        <v>613.7</v>
+      </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
@@ -2049,7 +2004,7 @@
         <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>500</v>
@@ -2078,19 +2033,19 @@
         <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G46">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="J46">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L46">
         <v>1.2274</v>
       </c>
       <c r="M46">
-        <v>613.7</v>
+        <v>1841.1</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2107,7 +2062,7 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>500</v>
@@ -2136,19 +2091,19 @@
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="J48">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L48">
         <v>1.2274</v>
       </c>
       <c r="M48">
-        <v>1841.1</v>
+        <v>613.7</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2162,10 +2117,10 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>500</v>
@@ -2191,10 +2146,10 @@
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>500</v>
@@ -2223,19 +2178,10 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51">
-        <v>500</v>
-      </c>
-      <c r="J51">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="L51">
-        <v>1.2274</v>
-      </c>
-      <c r="M51">
-        <v>613.7</v>
+        <v>0.9072</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2252,19 +2198,19 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G52">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="J52">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="L52">
-        <v>1.2274</v>
+        <v>0.9072</v>
       </c>
       <c r="M52">
-        <v>613.7</v>
+        <v>108.864</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2281,11 +2227,20 @@
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="G53">
+        <v>200</v>
+      </c>
+      <c r="J53">
+        <v>200</v>
       </c>
       <c r="L53">
         <v>0.9072</v>
       </c>
+      <c r="M53">
+        <v>181.44</v>
+      </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
@@ -2301,19 +2256,19 @@
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G54">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="J54">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="L54">
         <v>0.9072</v>
       </c>
       <c r="M54">
-        <v>108.864</v>
+        <v>362.88</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2330,19 +2285,13 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G55">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="J55">
-        <v>200</v>
-      </c>
-      <c r="L55">
-        <v>0.9072</v>
-      </c>
-      <c r="M55">
-        <v>181.44</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2359,19 +2308,19 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G56">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="J56">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="L56">
-        <v>0.9072</v>
+        <v>1.2274</v>
       </c>
       <c r="M56">
-        <v>362.88</v>
+        <v>153.425</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2388,25 +2337,19 @@
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G57">
-        <v>250</v>
-      </c>
-      <c r="I57">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="J57">
-        <v>10750</v>
-      </c>
-      <c r="K57">
-        <v>10500</v>
+        <v>375</v>
       </c>
       <c r="L57">
-        <v>0.1333</v>
+        <v>0.0602</v>
       </c>
       <c r="M57">
-        <v>1432.975</v>
+        <v>22.575</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2423,19 +2366,19 @@
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G58">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="J58">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="L58">
-        <v>1.2274</v>
+        <v>0.0602</v>
       </c>
       <c r="M58">
-        <v>153.425</v>
+        <v>22.575</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2452,19 +2395,19 @@
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G59">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="J59">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="L59">
-        <v>0.0539</v>
+        <v>0.0602</v>
       </c>
       <c r="M59">
-        <v>26.95</v>
+        <v>22.575</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2481,19 +2424,19 @@
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G60">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="J60">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="L60">
-        <v>0.0539</v>
+        <v>0.0602</v>
       </c>
       <c r="M60">
-        <v>26.95</v>
+        <v>22.575</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2510,19 +2453,19 @@
         <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G61">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="J61">
-        <v>750</v>
+        <v>125</v>
       </c>
       <c r="L61">
-        <v>0.0539</v>
+        <v>1.2274</v>
       </c>
       <c r="M61">
-        <v>40.425</v>
+        <v>153.425</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2539,7 +2482,7 @@
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G62">
         <v>750</v>
@@ -2548,10 +2491,10 @@
         <v>750</v>
       </c>
       <c r="L62">
-        <v>0.0539</v>
+        <v>0.0602</v>
       </c>
       <c r="M62">
-        <v>40.425</v>
+        <v>45.15</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2568,19 +2511,25 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G63">
         <v>375</v>
       </c>
+      <c r="H63">
+        <v>40</v>
+      </c>
       <c r="J63">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="K63">
+        <v>-360</v>
       </c>
       <c r="L63">
-        <v>0.0602</v>
+        <v>0.0123</v>
       </c>
       <c r="M63">
-        <v>22.575</v>
+        <v>0.1845</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2597,19 +2546,19 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G64">
-        <v>375</v>
+        <v>1400</v>
       </c>
       <c r="J64">
-        <v>375</v>
+        <v>1400</v>
       </c>
       <c r="L64">
-        <v>0.0602</v>
+        <v>0.9072</v>
       </c>
       <c r="M64">
-        <v>22.575</v>
+        <v>1270.08</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2626,19 +2575,19 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G65">
-        <v>375</v>
+        <v>1600</v>
       </c>
       <c r="J65">
-        <v>375</v>
+        <v>1600</v>
       </c>
       <c r="L65">
-        <v>0.0602</v>
+        <v>0.9072</v>
       </c>
       <c r="M65">
-        <v>22.575</v>
+        <v>1451.52</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2655,19 +2604,19 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G66">
-        <v>375</v>
+        <v>1200</v>
       </c>
       <c r="J66">
-        <v>375</v>
+        <v>1200</v>
       </c>
       <c r="L66">
-        <v>0.0602</v>
+        <v>0.9072</v>
       </c>
       <c r="M66">
-        <v>22.575</v>
+        <v>1088.64</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2684,19 +2633,19 @@
         <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G67">
-        <v>125</v>
+        <v>1600</v>
       </c>
       <c r="J67">
-        <v>125</v>
+        <v>1600</v>
       </c>
       <c r="L67">
-        <v>1.2274</v>
+        <v>0.9072</v>
       </c>
       <c r="M67">
-        <v>153.425</v>
+        <v>1451.52</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2713,19 +2662,19 @@
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G68">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="J68">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="L68">
-        <v>0.0602</v>
+        <v>1.2052</v>
       </c>
       <c r="M68">
-        <v>45.15</v>
+        <v>1506.5</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2742,25 +2691,19 @@
         <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G69">
-        <v>375</v>
-      </c>
-      <c r="H69">
-        <v>40</v>
+        <v>625</v>
       </c>
       <c r="J69">
-        <v>15</v>
-      </c>
-      <c r="K69">
-        <v>-360</v>
+        <v>625</v>
       </c>
       <c r="L69">
-        <v>0.0123</v>
+        <v>1.2274</v>
       </c>
       <c r="M69">
-        <v>0.1845</v>
+        <v>767.125</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2777,19 +2720,25 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G70">
-        <v>1400</v>
+        <v>2625</v>
+      </c>
+      <c r="H70">
+        <v>500</v>
       </c>
       <c r="J70">
-        <v>1400</v>
+        <v>1312.5</v>
+      </c>
+      <c r="K70">
+        <v>-1313</v>
       </c>
       <c r="L70">
-        <v>0.9072</v>
+        <v>0.0123</v>
       </c>
       <c r="M70">
-        <v>1270.08</v>
+        <v>16.14375</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -2806,19 +2755,19 @@
         <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G71">
-        <v>1600</v>
+        <v>2625</v>
       </c>
       <c r="J71">
-        <v>1600</v>
+        <v>2625</v>
       </c>
       <c r="L71">
-        <v>0.9072</v>
+        <v>0.0602</v>
       </c>
       <c r="M71">
-        <v>1451.52</v>
+        <v>158.025</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -2835,19 +2784,19 @@
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G72">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="J72">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="L72">
-        <v>0.9072</v>
+        <v>0.0602</v>
       </c>
       <c r="M72">
-        <v>1088.64</v>
+        <v>180.6</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2864,19 +2813,19 @@
         <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G73">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="J73">
-        <v>1600</v>
+        <v>2250</v>
       </c>
       <c r="L73">
-        <v>0.9072</v>
+        <v>0.0602</v>
       </c>
       <c r="M73">
-        <v>1451.52</v>
+        <v>135.45</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -2893,19 +2842,19 @@
         <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G74">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="J74">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="L74">
-        <v>1.2052</v>
+        <v>1.2274</v>
       </c>
       <c r="M74">
-        <v>1506.5</v>
+        <v>920.55</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -2922,19 +2871,19 @@
         <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G75">
-        <v>625</v>
+        <v>3000</v>
       </c>
       <c r="J75">
-        <v>625</v>
+        <v>3000</v>
       </c>
       <c r="L75">
-        <v>1.2274</v>
+        <v>0.0602</v>
       </c>
       <c r="M75">
-        <v>767.125</v>
+        <v>180.6</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -2951,19 +2900,19 @@
         <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G76">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="J76">
-        <v>2000</v>
+        <v>2625</v>
       </c>
       <c r="L76">
-        <v>0.0539</v>
+        <v>0.0602</v>
       </c>
       <c r="M76">
-        <v>107.8</v>
+        <v>158.025</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2980,19 +2929,19 @@
         <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G77">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="J77">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="L77">
-        <v>0.0539</v>
+        <v>0.2221</v>
       </c>
       <c r="M77">
-        <v>107.8</v>
+        <v>55.525</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3009,19 +2958,19 @@
         <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G78">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="J78">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="L78">
-        <v>0.0539</v>
+        <v>0.2221</v>
       </c>
       <c r="M78">
-        <v>107.8</v>
+        <v>55.525</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3038,19 +2987,19 @@
         <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G79">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="J79">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="L79">
-        <v>0.0539</v>
+        <v>0.2221</v>
       </c>
       <c r="M79">
-        <v>107.8</v>
+        <v>55.525</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3067,25 +3016,19 @@
         <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G80">
-        <v>2625</v>
-      </c>
-      <c r="H80">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="J80">
-        <v>1312.5</v>
-      </c>
-      <c r="K80">
-        <v>-1313</v>
+        <v>750</v>
       </c>
       <c r="L80">
-        <v>0.0123</v>
+        <v>0.2221</v>
       </c>
       <c r="M80">
-        <v>16.14375</v>
+        <v>166.575</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3102,19 +3045,19 @@
         <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G81">
-        <v>2625</v>
+        <v>250</v>
       </c>
       <c r="J81">
-        <v>2625</v>
+        <v>250</v>
       </c>
       <c r="L81">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M81">
-        <v>158.025</v>
+        <v>55.525</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3131,19 +3074,19 @@
         <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G82">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J82">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L82">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M82">
-        <v>180.6</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3160,19 +3103,19 @@
         <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G83">
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="J83">
-        <v>2250</v>
+        <v>750</v>
       </c>
       <c r="L83">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M83">
-        <v>135.45</v>
+        <v>166.575</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3189,19 +3132,19 @@
         <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G84">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="J84">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L84">
-        <v>1.2274</v>
+        <v>0.2221</v>
       </c>
       <c r="M84">
-        <v>920.55</v>
+        <v>111.05</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3218,19 +3161,19 @@
         <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G85">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="J85">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="L85">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M85">
-        <v>180.6</v>
+        <v>55.525</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3247,19 +3190,19 @@
         <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G86">
-        <v>2625</v>
+        <v>1000</v>
       </c>
       <c r="J86">
-        <v>2625</v>
+        <v>1000</v>
       </c>
       <c r="L86">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M86">
-        <v>158.025</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3276,19 +3219,19 @@
         <v>46</v>
       </c>
       <c r="E87" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G87">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="J87">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L87">
         <v>0.2221</v>
       </c>
       <c r="M87">
-        <v>55.525</v>
+        <v>166.575</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3305,19 +3248,19 @@
         <v>46</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G88">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="J88">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="L88">
-        <v>0.2221</v>
+        <v>0.2252</v>
       </c>
       <c r="M88">
-        <v>55.525</v>
+        <v>292.76</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3334,19 +3277,19 @@
         <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G89">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="J89">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L89">
-        <v>0.2221</v>
+        <v>0.2252</v>
       </c>
       <c r="M89">
-        <v>55.525</v>
+        <v>146.38</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3363,19 +3306,19 @@
         <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G90">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="J90">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="L90">
-        <v>0.2221</v>
+        <v>0.2252</v>
       </c>
       <c r="M90">
-        <v>166.575</v>
+        <v>292.76</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3392,19 +3335,19 @@
         <v>46</v>
       </c>
       <c r="E91" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G91">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="J91">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="L91">
-        <v>0.2221</v>
+        <v>0.2252</v>
       </c>
       <c r="M91">
-        <v>55.525</v>
+        <v>292.76</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3421,19 +3364,19 @@
         <v>46</v>
       </c>
       <c r="E92" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G92">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="J92">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L92">
-        <v>0.2221</v>
+        <v>0.0602</v>
       </c>
       <c r="M92">
-        <v>222.1</v>
+        <v>45.15</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3450,19 +3393,19 @@
         <v>46</v>
       </c>
       <c r="E93" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G93">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="J93">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="L93">
-        <v>0.2221</v>
+        <v>0.0602</v>
       </c>
       <c r="M93">
-        <v>166.575</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3479,19 +3422,19 @@
         <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G94">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="J94">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L94">
-        <v>0.2221</v>
+        <v>0.9072</v>
       </c>
       <c r="M94">
-        <v>111.05</v>
+        <v>725.76</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3508,19 +3451,19 @@
         <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G95">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="J95">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="L95">
         <v>0.2221</v>
       </c>
       <c r="M95">
-        <v>55.525</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -3537,7 +3480,7 @@
         <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G96">
         <v>1000</v>
@@ -3566,19 +3509,19 @@
         <v>46</v>
       </c>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G97">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="J97">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L97">
         <v>0.2221</v>
       </c>
       <c r="M97">
-        <v>166.575</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3595,19 +3538,19 @@
         <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G98">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="J98">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L98">
-        <v>0.2252</v>
+        <v>0.2221</v>
       </c>
       <c r="M98">
-        <v>292.76</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -3624,19 +3567,19 @@
         <v>46</v>
       </c>
       <c r="E99" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G99">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="J99">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L99">
-        <v>0.2252</v>
+        <v>0.2221</v>
       </c>
       <c r="M99">
-        <v>146.38</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -3653,19 +3596,19 @@
         <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G100">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="J100">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L100">
-        <v>0.2252</v>
+        <v>0.2221</v>
       </c>
       <c r="M100">
-        <v>292.76</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -3682,19 +3625,19 @@
         <v>46</v>
       </c>
       <c r="E101" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G101">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="J101">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L101">
-        <v>0.2252</v>
+        <v>0.2221</v>
       </c>
       <c r="M101">
-        <v>292.76</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -3711,19 +3654,19 @@
         <v>46</v>
       </c>
       <c r="E102" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G102">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="J102">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L102">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M102">
-        <v>45.15</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3740,19 +3683,19 @@
         <v>46</v>
       </c>
       <c r="E103" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G103">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J103">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L103">
-        <v>0.0602</v>
+        <v>0.2221</v>
       </c>
       <c r="M103">
-        <v>90.3</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -3769,19 +3712,19 @@
         <v>46</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G104">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J104">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L104">
-        <v>0.9072</v>
+        <v>0.2221</v>
       </c>
       <c r="M104">
-        <v>725.76</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -3798,7 +3741,7 @@
         <v>46</v>
       </c>
       <c r="E105" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G105">
         <v>1000</v>
@@ -3827,19 +3770,19 @@
         <v>46</v>
       </c>
       <c r="E106" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G106">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="J106">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="L106">
-        <v>0.2221</v>
+        <v>1.2274</v>
       </c>
       <c r="M106">
-        <v>222.1</v>
+        <v>153.425</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -3856,19 +3799,10 @@
         <v>46</v>
       </c>
       <c r="E107" t="s">
-        <v>67</v>
-      </c>
-      <c r="G107">
-        <v>1000</v>
-      </c>
-      <c r="J107">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="L107">
-        <v>0.2221</v>
-      </c>
-      <c r="M107">
-        <v>222.1</v>
+        <v>1.2274</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -3885,19 +3819,19 @@
         <v>46</v>
       </c>
       <c r="E108" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G108">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="J108">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="L108">
-        <v>0.2221</v>
+        <v>1.2274</v>
       </c>
       <c r="M108">
-        <v>222.1</v>
+        <v>460.275</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -3914,19 +3848,19 @@
         <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G109">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J109">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L109">
-        <v>0.2221</v>
+        <v>1.2274</v>
       </c>
       <c r="M109">
-        <v>222.1</v>
+        <v>613.7</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -3943,19 +3877,19 @@
         <v>46</v>
       </c>
       <c r="E110" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G110">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J110">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L110">
-        <v>0.2221</v>
+        <v>1.2274</v>
       </c>
       <c r="M110">
-        <v>222.1</v>
+        <v>613.7</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -3972,19 +3906,19 @@
         <v>46</v>
       </c>
       <c r="E111" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="J111">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="L111">
-        <v>0.2221</v>
+        <v>1.2274</v>
       </c>
       <c r="M111">
-        <v>222.1</v>
+        <v>460.275</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4001,19 +3935,19 @@
         <v>46</v>
       </c>
       <c r="E112" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G112">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J112">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L112">
-        <v>0.2221</v>
+        <v>0.0721</v>
       </c>
       <c r="M112">
-        <v>222.1</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4027,22 +3961,22 @@
         <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E113" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G113">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J113">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L113">
-        <v>0.2221</v>
+        <v>0.0721</v>
       </c>
       <c r="M113">
-        <v>222.1</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4056,22 +3990,22 @@
         <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E114" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G114">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J114">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L114">
-        <v>0.2221</v>
+        <v>0.0721</v>
       </c>
       <c r="M114">
-        <v>222.1</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4085,22 +4019,22 @@
         <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E115" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G115">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J115">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L115">
-        <v>0.2221</v>
+        <v>0.0721</v>
       </c>
       <c r="M115">
-        <v>222.1</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4114,22 +4048,22 @@
         <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="G116">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="J116">
-        <v>125</v>
+        <v>750</v>
       </c>
       <c r="L116">
-        <v>1.2274</v>
+        <v>0.0721</v>
       </c>
       <c r="M116">
-        <v>153.425</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4143,13 +4077,22 @@
         <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="G117">
+        <v>3000</v>
+      </c>
+      <c r="J117">
+        <v>3000</v>
       </c>
       <c r="L117">
-        <v>1.2274</v>
+        <v>0.0721</v>
+      </c>
+      <c r="M117">
+        <v>216.3</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4163,22 +4106,22 @@
         <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="G118">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="J118">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="L118">
-        <v>1.2274</v>
+        <v>0.0721</v>
       </c>
       <c r="M118">
-        <v>460.275</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4192,22 +4135,22 @@
         <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="G119">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="J119">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L119">
-        <v>1.2274</v>
+        <v>0.0721</v>
       </c>
       <c r="M119">
-        <v>613.7</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4221,22 +4164,22 @@
         <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G120">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="J120">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="L120">
-        <v>1.2274</v>
+        <v>0.0721</v>
       </c>
       <c r="M120">
-        <v>613.7</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4250,22 +4193,22 @@
         <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G121">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="J121">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="L121">
-        <v>1.2274</v>
+        <v>0.0721</v>
       </c>
       <c r="M121">
-        <v>460.275</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4279,22 +4222,22 @@
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G122">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="J122">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="L122">
         <v>0.0721</v>
       </c>
       <c r="M122">
-        <v>216.3</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4308,10 +4251,10 @@
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G123">
         <v>3000</v>
@@ -4337,22 +4280,22 @@
         <v>29</v>
       </c>
       <c r="D124" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G124">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="J124">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L124">
-        <v>0.0721</v>
+        <v>0.3561</v>
       </c>
       <c r="M124">
-        <v>216.3</v>
+        <v>640.98</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4366,10 +4309,10 @@
         <v>29</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G125">
         <v>3000</v>
@@ -4395,22 +4338,22 @@
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G126">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="J126">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="L126">
         <v>0.0721</v>
       </c>
       <c r="M126">
-        <v>54.075</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4424,10 +4367,10 @@
         <v>29</v>
       </c>
       <c r="D127" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E127" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G127">
         <v>3000</v>
@@ -4453,22 +4396,22 @@
         <v>29</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E128" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G128">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="J128">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="L128">
         <v>0.0721</v>
       </c>
       <c r="M128">
-        <v>54.075</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4482,22 +4425,22 @@
         <v>29</v>
       </c>
       <c r="D129" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129" t="s">
         <v>80</v>
       </c>
-      <c r="E129" t="s">
-        <v>87</v>
-      </c>
       <c r="G129">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="J129">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="L129">
         <v>0.0721</v>
       </c>
       <c r="M129">
-        <v>54.075</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4511,10 +4454,10 @@
         <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E130" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G130">
         <v>3000</v>
@@ -4540,22 +4483,22 @@
         <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E131" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G131">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="J131">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="L131">
         <v>0.0721</v>
       </c>
       <c r="M131">
-        <v>54.075</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4569,22 +4512,22 @@
         <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E132" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G132">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="J132">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="L132">
         <v>0.0721</v>
       </c>
       <c r="M132">
-        <v>54.075</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4598,10 +4541,10 @@
         <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E133" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G133">
         <v>3000</v>
@@ -4627,22 +4570,22 @@
         <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E134" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G134">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J134">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L134">
-        <v>0.5932</v>
+        <v>0.0721</v>
       </c>
       <c r="M134">
-        <v>889.8</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4656,22 +4599,22 @@
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E135" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G135">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="J135">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L135">
-        <v>0.3561</v>
+        <v>0.0721</v>
       </c>
       <c r="M135">
-        <v>640.98</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4685,22 +4628,22 @@
         <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G136">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J136">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L136">
-        <v>0.7267</v>
+        <v>0.0721</v>
       </c>
       <c r="M136">
-        <v>1453.4</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4714,22 +4657,22 @@
         <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E137" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G137">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="J137">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L137">
-        <v>0.0721</v>
+        <v>0.3561</v>
       </c>
       <c r="M137">
-        <v>216.3</v>
+        <v>640.98</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4743,22 +4686,22 @@
         <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E138" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G138">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="J138">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="L138">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M138">
-        <v>216.3</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4772,22 +4715,22 @@
         <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E139" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G139">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="J139">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="L139">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M139">
-        <v>216.3</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4801,22 +4744,22 @@
         <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E140" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G140">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="J140">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="L140">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M140">
-        <v>216.3</v>
+        <v>112.42</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4830,22 +4773,22 @@
         <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G141">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="J141">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="L141">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M141">
-        <v>216.3</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4859,22 +4802,22 @@
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E142" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G142">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="J142">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="L142">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M142">
-        <v>216.3</v>
+        <v>112.42</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4888,22 +4831,22 @@
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G143">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="J143">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="L143">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M143">
-        <v>216.3</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4917,22 +4860,22 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E144" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G144">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="J144">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="L144">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M144">
-        <v>216.3</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4946,22 +4889,22 @@
         <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E145" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G145">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="J145">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="L145">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M145">
-        <v>216.3</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4975,22 +4918,22 @@
         <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E146" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G146">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="J146">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="L146">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M146">
-        <v>216.3</v>
+        <v>112.42</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -5004,22 +4947,22 @@
         <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E147" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G147">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="J147">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="L147">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M147">
-        <v>216.3</v>
+        <v>56.21</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -5033,22 +4976,22 @@
         <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E148" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G148">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="J148">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="L148">
-        <v>0.0721</v>
+        <v>0.1022</v>
       </c>
       <c r="M148">
-        <v>216.3</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -5062,22 +5005,22 @@
         <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E149" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G149">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="J149">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="L149">
-        <v>0.5932</v>
+        <v>0.1022</v>
       </c>
       <c r="M149">
-        <v>889.8</v>
+        <v>112.42</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -5091,22 +5034,22 @@
         <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E150" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G150">
-        <v>1800</v>
+        <v>1650</v>
       </c>
       <c r="J150">
-        <v>1800</v>
+        <v>1650</v>
       </c>
       <c r="L150">
-        <v>0.3561</v>
+        <v>0.1022</v>
       </c>
       <c r="M150">
-        <v>640.98</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -5120,22 +5063,22 @@
         <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E151" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G151">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="J151">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L151">
-        <v>0.7267</v>
+        <v>0.1022</v>
       </c>
       <c r="M151">
-        <v>1453.4</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -5149,22 +5092,22 @@
         <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E152" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G152">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="J152">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="L152">
         <v>0.1022</v>
       </c>
       <c r="M152">
-        <v>56.21</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -5178,22 +5121,22 @@
         <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E153" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G153">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="J153">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="L153">
-        <v>0.5932</v>
+        <v>0.1022</v>
       </c>
       <c r="M153">
-        <v>222.45</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -5207,22 +5150,22 @@
         <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E154" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G154">
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="J154">
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="L154">
-        <v>0.5932</v>
+        <v>0.1022</v>
       </c>
       <c r="M154">
-        <v>222.45</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -5236,22 +5179,22 @@
         <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E155" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G155">
-        <v>1125</v>
+        <v>100</v>
       </c>
       <c r="J155">
-        <v>1125</v>
+        <v>100</v>
       </c>
       <c r="L155">
-        <v>0.5932</v>
+        <v>0.1022</v>
       </c>
       <c r="M155">
-        <v>667.35</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -5265,22 +5208,22 @@
         <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E156" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G156">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="J156">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="L156">
         <v>0.1022</v>
       </c>
       <c r="M156">
-        <v>56.21</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -5294,22 +5237,22 @@
         <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E157" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G157">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="J157">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="L157">
-        <v>0.5932</v>
+        <v>0.1022</v>
       </c>
       <c r="M157">
-        <v>222.45</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -5323,22 +5266,22 @@
         <v>29</v>
       </c>
       <c r="D158" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E158" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G158">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="J158">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="L158">
         <v>0.1022</v>
       </c>
       <c r="M158">
-        <v>112.42</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -5352,22 +5295,22 @@
         <v>29</v>
       </c>
       <c r="D159" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E159" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G159">
-        <v>1650</v>
+        <v>2200</v>
       </c>
       <c r="J159">
-        <v>1650</v>
+        <v>2200</v>
       </c>
       <c r="L159">
         <v>0.1022</v>
       </c>
       <c r="M159">
-        <v>168.63</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -5381,22 +5324,22 @@
         <v>29</v>
       </c>
       <c r="D160" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G160">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="J160">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="L160">
         <v>0.1022</v>
       </c>
       <c r="M160">
-        <v>112.42</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -5410,22 +5353,22 @@
         <v>29</v>
       </c>
       <c r="D161" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G161">
-        <v>1650</v>
+        <v>2200</v>
       </c>
       <c r="J161">
-        <v>1650</v>
+        <v>2200</v>
       </c>
       <c r="L161">
         <v>0.1022</v>
       </c>
       <c r="M161">
-        <v>168.63</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -5439,22 +5382,22 @@
         <v>29</v>
       </c>
       <c r="D162" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E162" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G162">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="J162">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="L162">
         <v>0.1022</v>
       </c>
       <c r="M162">
-        <v>56.21</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -5468,22 +5411,22 @@
         <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E163" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G163">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="J163">
-        <v>550</v>
+        <v>2200</v>
       </c>
       <c r="L163">
         <v>0.1022</v>
       </c>
       <c r="M163">
-        <v>56.21</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -5497,22 +5440,22 @@
         <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E164" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="G164">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="J164">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="L164">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M164">
-        <v>112.42</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -5526,22 +5469,22 @@
         <v>29</v>
       </c>
       <c r="D165" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G165">
-        <v>550</v>
+        <v>3000</v>
       </c>
       <c r="J165">
-        <v>550</v>
+        <v>3000</v>
       </c>
       <c r="L165">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M165">
-        <v>56.21</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -5555,22 +5498,22 @@
         <v>29</v>
       </c>
       <c r="D166" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E166" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G166">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="J166">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="L166">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M166">
-        <v>168.63</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -5584,22 +5527,22 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E167" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="G167">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="J167">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="L167">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M167">
-        <v>112.42</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -5613,22 +5556,22 @@
         <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E168" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G168">
-        <v>1650</v>
+        <v>2250</v>
       </c>
       <c r="J168">
-        <v>1650</v>
+        <v>2250</v>
       </c>
       <c r="L168">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M168">
-        <v>168.63</v>
+        <v>162.225</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -5642,22 +5585,22 @@
         <v>29</v>
       </c>
       <c r="D169" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E169" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G169">
-        <v>2200</v>
+        <v>2250</v>
       </c>
       <c r="J169">
-        <v>2200</v>
+        <v>2250</v>
       </c>
       <c r="L169">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M169">
-        <v>224.84</v>
+        <v>162.225</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -5671,22 +5614,22 @@
         <v>29</v>
       </c>
       <c r="D170" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E170" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G170">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J170">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="L170">
-        <v>0.5932</v>
+        <v>0.0721</v>
       </c>
       <c r="M170">
-        <v>889.8</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -5700,22 +5643,22 @@
         <v>29</v>
       </c>
       <c r="D171" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E171" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G171">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J171">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="L171">
-        <v>0.5932</v>
+        <v>0.0721</v>
       </c>
       <c r="M171">
-        <v>889.8</v>
+        <v>54.075</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -5729,22 +5672,22 @@
         <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G172">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="J172">
-        <v>1500</v>
+        <v>2250</v>
       </c>
       <c r="L172">
-        <v>0.5932</v>
+        <v>0.0721</v>
       </c>
       <c r="M172">
-        <v>889.8</v>
+        <v>162.225</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5758,22 +5701,22 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E173" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G173">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="J173">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L173">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M173">
-        <v>224.84</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -5787,22 +5730,22 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
+        <v>102</v>
+      </c>
+      <c r="E174" t="s">
         <v>80</v>
       </c>
-      <c r="E174" t="s">
-        <v>100</v>
-      </c>
       <c r="G174">
-        <v>100</v>
+        <v>2250</v>
       </c>
       <c r="J174">
-        <v>100</v>
+        <v>2250</v>
       </c>
       <c r="L174">
-        <v>0.5932</v>
+        <v>0.0721</v>
       </c>
       <c r="M174">
-        <v>59.32</v>
+        <v>162.225</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -5816,22 +5759,22 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E175" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G175">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="J175">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="L175">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M175">
-        <v>10.22</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -5845,22 +5788,22 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E176" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G176">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="J176">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="L176">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M176">
-        <v>1.022</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -5874,22 +5817,22 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E177" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G177">
-        <v>100</v>
+        <v>1650</v>
       </c>
       <c r="J177">
-        <v>100</v>
+        <v>1650</v>
       </c>
       <c r="L177">
         <v>0.1022</v>
       </c>
       <c r="M177">
-        <v>10.22</v>
+        <v>168.63</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -5903,22 +5846,22 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E178" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G178">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="J178">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="L178">
         <v>0.1022</v>
       </c>
       <c r="M178">
-        <v>10.22</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -5932,22 +5875,22 @@
         <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E179" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G179">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="J179">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="L179">
         <v>0.1022</v>
       </c>
       <c r="M179">
-        <v>102.2</v>
+        <v>224.84</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -5961,22 +5904,13 @@
         <v>29</v>
       </c>
       <c r="D180" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E180" t="s">
-        <v>106</v>
-      </c>
-      <c r="G180">
-        <v>2200</v>
-      </c>
-      <c r="J180">
-        <v>2200</v>
+        <v>75</v>
       </c>
       <c r="L180">
-        <v>0.1022</v>
-      </c>
-      <c r="M180">
-        <v>224.84</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -5990,22 +5924,22 @@
         <v>29</v>
       </c>
       <c r="D181" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E181" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G181">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="J181">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L181">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M181">
-        <v>224.84</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -6019,22 +5953,22 @@
         <v>29</v>
       </c>
       <c r="D182" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E182" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G182">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="J182">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L182">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M182">
-        <v>224.84</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -6048,22 +5982,22 @@
         <v>29</v>
       </c>
       <c r="D183" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E183" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G183">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="J183">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L183">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M183">
-        <v>224.84</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -6077,22 +6011,22 @@
         <v>29</v>
       </c>
       <c r="D184" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E184" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G184">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="J184">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L184">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M184">
-        <v>224.84</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -6106,22 +6040,22 @@
         <v>29</v>
       </c>
       <c r="D185" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E185" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G185">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="J185">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L185">
-        <v>0.1022</v>
+        <v>0.0721</v>
       </c>
       <c r="M185">
-        <v>224.84</v>
+        <v>216.3</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -6135,10 +6069,10 @@
         <v>29</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E186" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G186">
         <v>3000</v>
@@ -6164,10 +6098,10 @@
         <v>29</v>
       </c>
       <c r="D187" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E187" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G187">
         <v>3000</v>
@@ -6179,664 +6113,6 @@
         <v>0.0721</v>
       </c>
       <c r="M187">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13">
-      <c r="A188" t="s">
-        <v>13</v>
-      </c>
-      <c r="B188" t="s">
-        <v>29</v>
-      </c>
-      <c r="C188" t="s">
-        <v>29</v>
-      </c>
-      <c r="D188" t="s">
-        <v>112</v>
-      </c>
-      <c r="E188" t="s">
-        <v>87</v>
-      </c>
-      <c r="G188">
-        <v>3000</v>
-      </c>
-      <c r="J188">
-        <v>3000</v>
-      </c>
-      <c r="L188">
-        <v>0.0721</v>
-      </c>
-      <c r="M188">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13">
-      <c r="A189" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" t="s">
-        <v>29</v>
-      </c>
-      <c r="C189" t="s">
-        <v>29</v>
-      </c>
-      <c r="D189" t="s">
-        <v>112</v>
-      </c>
-      <c r="E189" t="s">
-        <v>81</v>
-      </c>
-      <c r="G189">
-        <v>3000</v>
-      </c>
-      <c r="J189">
-        <v>3000</v>
-      </c>
-      <c r="L189">
-        <v>0.0721</v>
-      </c>
-      <c r="M189">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13">
-      <c r="A190" t="s">
-        <v>13</v>
-      </c>
-      <c r="B190" t="s">
-        <v>29</v>
-      </c>
-      <c r="C190" t="s">
-        <v>29</v>
-      </c>
-      <c r="D190" t="s">
-        <v>112</v>
-      </c>
-      <c r="E190" t="s">
-        <v>88</v>
-      </c>
-      <c r="G190">
-        <v>2250</v>
-      </c>
-      <c r="J190">
-        <v>2250</v>
-      </c>
-      <c r="L190">
-        <v>0.0721</v>
-      </c>
-      <c r="M190">
-        <v>162.225</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13">
-      <c r="A191" t="s">
-        <v>13</v>
-      </c>
-      <c r="B191" t="s">
-        <v>29</v>
-      </c>
-      <c r="C191" t="s">
-        <v>29</v>
-      </c>
-      <c r="D191" t="s">
-        <v>112</v>
-      </c>
-      <c r="E191" t="s">
-        <v>89</v>
-      </c>
-      <c r="G191">
-        <v>2250</v>
-      </c>
-      <c r="J191">
-        <v>2250</v>
-      </c>
-      <c r="L191">
-        <v>0.0721</v>
-      </c>
-      <c r="M191">
-        <v>162.225</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192" t="s">
-        <v>13</v>
-      </c>
-      <c r="B192" t="s">
-        <v>29</v>
-      </c>
-      <c r="C192" t="s">
-        <v>29</v>
-      </c>
-      <c r="D192" t="s">
-        <v>112</v>
-      </c>
-      <c r="E192" t="s">
-        <v>82</v>
-      </c>
-      <c r="G192">
-        <v>750</v>
-      </c>
-      <c r="J192">
-        <v>750</v>
-      </c>
-      <c r="L192">
-        <v>0.0721</v>
-      </c>
-      <c r="M192">
-        <v>54.075</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" t="s">
-        <v>13</v>
-      </c>
-      <c r="B193" t="s">
-        <v>29</v>
-      </c>
-      <c r="C193" t="s">
-        <v>29</v>
-      </c>
-      <c r="D193" t="s">
-        <v>112</v>
-      </c>
-      <c r="E193" t="s">
-        <v>90</v>
-      </c>
-      <c r="G193">
-        <v>750</v>
-      </c>
-      <c r="J193">
-        <v>750</v>
-      </c>
-      <c r="L193">
-        <v>0.0721</v>
-      </c>
-      <c r="M193">
-        <v>54.075</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" t="s">
-        <v>13</v>
-      </c>
-      <c r="B194" t="s">
-        <v>29</v>
-      </c>
-      <c r="C194" t="s">
-        <v>29</v>
-      </c>
-      <c r="D194" t="s">
-        <v>112</v>
-      </c>
-      <c r="E194" t="s">
-        <v>83</v>
-      </c>
-      <c r="G194">
-        <v>2250</v>
-      </c>
-      <c r="J194">
-        <v>2250</v>
-      </c>
-      <c r="L194">
-        <v>0.0721</v>
-      </c>
-      <c r="M194">
-        <v>162.225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" t="s">
-        <v>13</v>
-      </c>
-      <c r="B195" t="s">
-        <v>29</v>
-      </c>
-      <c r="C195" t="s">
-        <v>29</v>
-      </c>
-      <c r="D195" t="s">
-        <v>112</v>
-      </c>
-      <c r="E195" t="s">
-        <v>91</v>
-      </c>
-      <c r="G195">
-        <v>3000</v>
-      </c>
-      <c r="J195">
-        <v>3000</v>
-      </c>
-      <c r="L195">
-        <v>0.0721</v>
-      </c>
-      <c r="M195">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" t="s">
-        <v>29</v>
-      </c>
-      <c r="C196" t="s">
-        <v>29</v>
-      </c>
-      <c r="D196" t="s">
-        <v>112</v>
-      </c>
-      <c r="E196" t="s">
-        <v>84</v>
-      </c>
-      <c r="G196">
-        <v>2250</v>
-      </c>
-      <c r="J196">
-        <v>2250</v>
-      </c>
-      <c r="L196">
-        <v>0.0721</v>
-      </c>
-      <c r="M196">
-        <v>162.225</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" t="s">
-        <v>29</v>
-      </c>
-      <c r="C197" t="s">
-        <v>29</v>
-      </c>
-      <c r="D197" t="s">
-        <v>112</v>
-      </c>
-      <c r="E197" t="s">
-        <v>85</v>
-      </c>
-      <c r="G197">
-        <v>3000</v>
-      </c>
-      <c r="J197">
-        <v>3000</v>
-      </c>
-      <c r="L197">
-        <v>0.0721</v>
-      </c>
-      <c r="M197">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" t="s">
-        <v>13</v>
-      </c>
-      <c r="B198" t="s">
-        <v>29</v>
-      </c>
-      <c r="C198" t="s">
-        <v>29</v>
-      </c>
-      <c r="D198" t="s">
-        <v>112</v>
-      </c>
-      <c r="E198" t="s">
-        <v>86</v>
-      </c>
-      <c r="G198">
-        <v>3000</v>
-      </c>
-      <c r="J198">
-        <v>3000</v>
-      </c>
-      <c r="L198">
-        <v>0.0721</v>
-      </c>
-      <c r="M198">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" t="s">
-        <v>13</v>
-      </c>
-      <c r="B199" t="s">
-        <v>29</v>
-      </c>
-      <c r="C199" t="s">
-        <v>29</v>
-      </c>
-      <c r="D199" t="s">
-        <v>112</v>
-      </c>
-      <c r="E199" t="s">
-        <v>110</v>
-      </c>
-      <c r="G199">
-        <v>1650</v>
-      </c>
-      <c r="J199">
-        <v>1650</v>
-      </c>
-      <c r="L199">
-        <v>0.1022</v>
-      </c>
-      <c r="M199">
-        <v>168.63</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" t="s">
-        <v>13</v>
-      </c>
-      <c r="B200" t="s">
-        <v>29</v>
-      </c>
-      <c r="C200" t="s">
-        <v>29</v>
-      </c>
-      <c r="D200" t="s">
-        <v>112</v>
-      </c>
-      <c r="E200" t="s">
-        <v>114</v>
-      </c>
-      <c r="G200">
-        <v>1500</v>
-      </c>
-      <c r="J200">
-        <v>1500</v>
-      </c>
-      <c r="L200">
-        <v>0.5932</v>
-      </c>
-      <c r="M200">
-        <v>889.8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" t="s">
-        <v>13</v>
-      </c>
-      <c r="B201" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201" t="s">
-        <v>29</v>
-      </c>
-      <c r="D201" t="s">
-        <v>112</v>
-      </c>
-      <c r="E201" t="s">
-        <v>105</v>
-      </c>
-      <c r="G201">
-        <v>2200</v>
-      </c>
-      <c r="J201">
-        <v>2200</v>
-      </c>
-      <c r="L201">
-        <v>0.1022</v>
-      </c>
-      <c r="M201">
-        <v>224.84</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202" t="s">
-        <v>13</v>
-      </c>
-      <c r="B202" t="s">
-        <v>29</v>
-      </c>
-      <c r="C202" t="s">
-        <v>29</v>
-      </c>
-      <c r="D202" t="s">
-        <v>112</v>
-      </c>
-      <c r="E202" t="s">
-        <v>99</v>
-      </c>
-      <c r="G202">
-        <v>2200</v>
-      </c>
-      <c r="J202">
-        <v>2200</v>
-      </c>
-      <c r="L202">
-        <v>0.1022</v>
-      </c>
-      <c r="M202">
-        <v>224.84</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" t="s">
-        <v>13</v>
-      </c>
-      <c r="B203" t="s">
-        <v>29</v>
-      </c>
-      <c r="C203" t="s">
-        <v>29</v>
-      </c>
-      <c r="D203" t="s">
-        <v>112</v>
-      </c>
-      <c r="E203" t="s">
-        <v>79</v>
-      </c>
-      <c r="L203">
-        <v>0.0721</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" t="s">
-        <v>13</v>
-      </c>
-      <c r="B204" t="s">
-        <v>29</v>
-      </c>
-      <c r="C204" t="s">
-        <v>29</v>
-      </c>
-      <c r="D204" t="s">
-        <v>112</v>
-      </c>
-      <c r="E204" t="s">
-        <v>113</v>
-      </c>
-      <c r="G204">
-        <v>3000</v>
-      </c>
-      <c r="J204">
-        <v>3000</v>
-      </c>
-      <c r="L204">
-        <v>0.0721</v>
-      </c>
-      <c r="M204">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13">
-      <c r="A205" t="s">
-        <v>13</v>
-      </c>
-      <c r="B205" t="s">
-        <v>29</v>
-      </c>
-      <c r="C205" t="s">
-        <v>29</v>
-      </c>
-      <c r="D205" t="s">
-        <v>112</v>
-      </c>
-      <c r="E205" t="s">
-        <v>87</v>
-      </c>
-      <c r="G205">
-        <v>3000</v>
-      </c>
-      <c r="J205">
-        <v>3000</v>
-      </c>
-      <c r="L205">
-        <v>0.0721</v>
-      </c>
-      <c r="M205">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13">
-      <c r="A206" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" t="s">
-        <v>29</v>
-      </c>
-      <c r="C206" t="s">
-        <v>29</v>
-      </c>
-      <c r="D206" t="s">
-        <v>112</v>
-      </c>
-      <c r="E206" t="s">
-        <v>81</v>
-      </c>
-      <c r="G206">
-        <v>3000</v>
-      </c>
-      <c r="J206">
-        <v>3000</v>
-      </c>
-      <c r="L206">
-        <v>0.0721</v>
-      </c>
-      <c r="M206">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13">
-      <c r="A207" t="s">
-        <v>13</v>
-      </c>
-      <c r="B207" t="s">
-        <v>29</v>
-      </c>
-      <c r="C207" t="s">
-        <v>29</v>
-      </c>
-      <c r="D207" t="s">
-        <v>112</v>
-      </c>
-      <c r="E207" t="s">
-        <v>88</v>
-      </c>
-      <c r="G207">
-        <v>3000</v>
-      </c>
-      <c r="J207">
-        <v>3000</v>
-      </c>
-      <c r="L207">
-        <v>0.0721</v>
-      </c>
-      <c r="M207">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13">
-      <c r="A208" t="s">
-        <v>13</v>
-      </c>
-      <c r="B208" t="s">
-        <v>29</v>
-      </c>
-      <c r="C208" t="s">
-        <v>29</v>
-      </c>
-      <c r="D208" t="s">
-        <v>112</v>
-      </c>
-      <c r="E208" t="s">
-        <v>89</v>
-      </c>
-      <c r="G208">
-        <v>3000</v>
-      </c>
-      <c r="J208">
-        <v>3000</v>
-      </c>
-      <c r="L208">
-        <v>0.0721</v>
-      </c>
-      <c r="M208">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
-      <c r="A209" t="s">
-        <v>13</v>
-      </c>
-      <c r="B209" t="s">
-        <v>29</v>
-      </c>
-      <c r="C209" t="s">
-        <v>29</v>
-      </c>
-      <c r="D209" t="s">
-        <v>112</v>
-      </c>
-      <c r="E209" t="s">
-        <v>82</v>
-      </c>
-      <c r="G209">
-        <v>3000</v>
-      </c>
-      <c r="J209">
-        <v>3000</v>
-      </c>
-      <c r="L209">
-        <v>0.0721</v>
-      </c>
-      <c r="M209">
-        <v>216.3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
-      <c r="A210" t="s">
-        <v>13</v>
-      </c>
-      <c r="B210" t="s">
-        <v>29</v>
-      </c>
-      <c r="C210" t="s">
-        <v>29</v>
-      </c>
-      <c r="D210" t="s">
-        <v>112</v>
-      </c>
-      <c r="E210" t="s">
-        <v>90</v>
-      </c>
-      <c r="G210">
-        <v>3000</v>
-      </c>
-      <c r="J210">
-        <v>3000</v>
-      </c>
-      <c r="L210">
-        <v>0.0721</v>
-      </c>
-      <c r="M210">
         <v>216.3</v>
       </c>
     </row>
@@ -6879,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6890,10 +6166,10 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>71500</v>
+        <v>67000</v>
       </c>
       <c r="C2">
-        <v>15924.25</v>
+        <v>14909.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6901,10 +6177,10 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>364532.5</v>
+        <v>283332.5</v>
       </c>
       <c r="C3">
-        <v>98332.31925</v>
+        <v>51813.92925</v>
       </c>
     </row>
   </sheetData>
@@ -6928,7 +6204,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6945,7 +6221,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6958,335 +6234,335 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>20000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>1312.5</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>9000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <v>9750</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>12000</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>11250</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B11">
-        <v>9000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12">
-        <v>9750</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B13">
-        <v>7500</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14">
-        <v>8250</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B15">
-        <v>9000</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>9000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>6750</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B19">
-        <v>1200</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>3750</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21">
-        <v>4950</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>3850</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>2750</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B24">
-        <v>1660</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B25">
-        <v>1200</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B26">
-        <v>1750</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B27">
-        <v>2750</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B28">
-        <v>3300</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B29">
-        <v>2750</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>4950</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B31">
-        <v>3850</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B32">
-        <v>375</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B33">
-        <v>3375</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>2625</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>3000</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>3750</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>2625</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <v>2250</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B39">
-        <v>1250</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B40">
-        <v>2000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B41">
-        <v>1250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B42">
-        <v>1750</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43">
-        <v>1250</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>1250</v>
@@ -7294,66 +6570,66 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45">
-        <v>1750</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B46">
-        <v>1500</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>1250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>2000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>1750</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B50">
-        <v>3600</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>2600</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>1950</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7361,7 +6637,7 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>10750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7446,7 +6722,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>1250</v>
@@ -7497,7 +6773,7 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>38000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -7505,28 +6781,28 @@
         <v>39</v>
       </c>
       <c r="B71">
-        <v>7700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>6000</v>
@@ -7534,7 +6810,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B75">
         <v>6000</v>
@@ -7542,7 +6818,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>6000</v>
@@ -7550,7 +6826,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B77">
         <v>5250</v>
@@ -7558,7 +6834,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <v>6000</v>
@@ -7566,7 +6842,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B79">
         <v>6000</v>
@@ -7574,7 +6850,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B80">
         <v>6000</v>
@@ -7582,7 +6858,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B81">
         <v>6000</v>
@@ -7590,7 +6866,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>6000</v>
@@ -7598,7 +6874,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B83">
         <v>5250</v>
@@ -7606,98 +6882,10 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B84">
         <v>2500</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95">
-        <v>2750</v>
       </c>
     </row>
   </sheetData>
@@ -7721,7 +6909,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -7742,7 +6930,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7753,7 +6941,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>4500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7786,7 +6974,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>6000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7808,7 +6996,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>5250</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7852,7 +7040,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>6000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7863,7 +7051,7 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>6000</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7874,7 +7062,7 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7885,7 +7073,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>5250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7893,10 +7081,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>750</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7904,10 +7092,10 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7915,10 +7103,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7926,10 +7114,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C18">
-        <v>2375</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7937,10 +7125,10 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>1750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7948,10 +7136,10 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <v>1750</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7959,10 +7147,10 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>7700</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7970,10 +7158,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>1500</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7981,10 +7169,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C23">
-        <v>3750</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7992,10 +7180,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C24">
-        <v>1875</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8003,10 +7191,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>1250</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8014,10 +7202,10 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C26">
-        <v>2750</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8025,10 +7213,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>1875</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8036,10 +7224,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C28">
-        <v>2000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8047,10 +7235,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>3300</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8058,10 +7246,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>1625</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8069,10 +7257,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>1750</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8080,7 +7268,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>2750</v>
@@ -8091,10 +7279,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C33">
-        <v>43000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8102,10 +7290,10 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C34">
-        <v>2600</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8113,10 +7301,10 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>3850</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8124,10 +7312,10 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C36">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8135,10 +7323,10 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C37">
-        <v>1950</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8146,10 +7334,10 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C38">
-        <v>4950</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8157,10 +7345,10 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>500</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8168,10 +7356,10 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C40">
-        <v>2250</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8179,10 +7367,10 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>3850</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8190,10 +7378,10 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C42">
-        <v>1720</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8201,10 +7389,10 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C43">
-        <v>9000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8212,10 +7400,10 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C44">
-        <v>6000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8223,10 +7411,10 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C45">
-        <v>1400</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8234,10 +7422,10 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C46">
-        <v>12000</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8245,10 +7433,10 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="C47">
-        <v>1500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8256,10 +7444,10 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>2000</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8267,10 +7455,10 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C49">
-        <v>9750</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8278,10 +7466,10 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>10750</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8289,10 +7477,10 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C51">
-        <v>8250</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8300,10 +7488,10 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C52">
-        <v>750</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8311,10 +7499,10 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>6000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8322,10 +7510,10 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C54">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8333,10 +7521,10 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C55">
-        <v>9000</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8344,10 +7532,10 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8355,10 +7543,10 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>6750</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8366,10 +7554,10 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C58">
-        <v>2750</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8377,10 +7565,10 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C59">
-        <v>9750</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8388,10 +7576,10 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C60">
-        <v>2750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8399,10 +7587,10 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C61">
-        <v>11250</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8410,10 +7598,10 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C62">
-        <v>375</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8421,10 +7609,10 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>9000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8432,10 +7620,10 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C64">
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8443,10 +7631,10 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>7500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8454,10 +7642,10 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>3375</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8465,10 +7653,10 @@
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C67">
-        <v>9000</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8476,10 +7664,10 @@
         <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C68">
-        <v>2625</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8487,10 +7675,10 @@
         <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C69">
-        <v>3000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8498,10 +7686,10 @@
         <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>3750</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8509,10 +7697,10 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C71">
-        <v>3600</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8520,10 +7708,10 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C72">
-        <v>15</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8531,10 +7719,10 @@
         <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="C73">
-        <v>4000</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8542,10 +7730,10 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C74">
-        <v>1250</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8553,10 +7741,10 @@
         <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C75">
-        <v>2750</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8564,10 +7752,10 @@
         <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>1312.5</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8575,10 +7763,10 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C77">
-        <v>1875</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8586,10 +7774,10 @@
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8597,10 +7785,10 @@
         <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C79">
-        <v>2625</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8608,10 +7796,10 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>1875</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8619,10 +7807,10 @@
         <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C81">
-        <v>2200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8630,10 +7818,10 @@
         <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C82">
-        <v>1250</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8641,10 +7829,10 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C83">
-        <v>2625</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8652,131 +7840,10 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C84">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95">
-        <v>1660</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
